--- a/BalanceSheet/SGEN_bal.xlsx
+++ b/BalanceSheet/SGEN_bal.xlsx
@@ -507,19 +507,19 @@
         <v>146591000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-19409000.0</v>
+        <v>116000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-6725000.0</v>
+        <v>97000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-5262000.0</v>
+        <v>90000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1192000.0</v>
+        <v>85000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>6102000.0</v>
+        <v>86000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>92034000.0</v>
@@ -4794,10 +4794,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B33" s="0" t="n">
+        <v>-2531156000.0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>-2484000000.0</v>
